--- a/biology/Botanique/Eriosema_adamaouense/Eriosema_adamaouense.xlsx
+++ b/biology/Botanique/Eriosema_adamaouense/Eriosema_adamaouense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eriosema adamaouense est une espèce de légumineuses, endémique des prairies camerounaises dans la région de l'Adamaoua (dans la localité de Hosséré Sillé). Son aire de répartition s'étend sur quelque 4 km2. L'UICN l'a inscrite dans sa liste rouge des espèces menacées, comme une espèce en danger critique d'extinction[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eriosema adamaouense est une espèce de légumineuses, endémique des prairies camerounaises dans la région de l'Adamaoua (dans la localité de Hosséré Sillé). Son aire de répartition s'étend sur quelque 4 km2. L'UICN l'a inscrite dans sa liste rouge des espèces menacées, comme une espèce en danger critique d'extinction,.
 Elle est décrite comme un petit buisson vivant dans les prairies camerounaises, et mise en danger d'extinction par le broutage excessif des troupeaux, et par les feux.
 </t>
         </is>
